--- a/bom/RSM Parts list.xlsx
+++ b/bom/RSM Parts list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>no.</t>
   </si>
@@ -34,7 +34,7 @@
     <t>https://www.revrobotics.com/rev-21-1650/</t>
   </si>
   <si>
-    <t>HELIUM Canandcoder</t>
+    <t>HELIUM Canandcoder / CTRE cancoder</t>
   </si>
   <si>
     <r>
@@ -46,6 +46,17 @@
     </r>
     <r>
       <rPr/>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://store.ctr-electronics.com/cancoder/</t>
+    </r>
+    <r>
+      <rPr/>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -89,12 +100,15 @@
     <t>Hex socket head cap screw M3 x 8</t>
   </si>
   <si>
+    <t>encoder and plastic cover mounting</t>
+  </si>
+  <si>
+    <t>Hex socket countersunk head screw M3 x 14</t>
+  </si>
+  <si>
     <t>encoder mounting</t>
   </si>
   <si>
-    <t>Hex socket countersunk head screw M4 x 14</t>
-  </si>
-  <si>
     <t>M3 nut</t>
   </si>
   <si>
@@ -119,21 +133,36 @@
     <t>Hex socket head cap screw M5 x 35</t>
   </si>
   <si>
-    <t>wheel</t>
+    <t>wheel to bevel gear mounting</t>
   </si>
   <si>
     <t>M4x12 set screw</t>
   </si>
   <si>
+    <t>connecting two gears</t>
+  </si>
+  <si>
     <t>8mm segger (retaining ring)</t>
   </si>
   <si>
+    <t>securing gear</t>
+  </si>
+  <si>
     <t>8mm spring retaining ring</t>
   </si>
   <si>
+    <t>https://www.andymark.com/products/8mm-push-on-retaining-ring?via=Z2lkOi8vYW5keW1hcmsvV29ya2FyZWE6Ok5hdmlnYXRpb246OlNlYXJjaFJlc3VsdHMvJTdCJTIyYnV0dG9uJTIyJTNBJTIyc2VhcmNoJTIyJTJDJTIycSUyMiUzQSUyMnJldGFpbmluZyUyMiUyQyUyMnV0ZjglMjIlM0ElMjIlRTIlOUMlOTMlMjIlN0Q</t>
+  </si>
+  <si>
+    <t>securing gears on the neo axle</t>
+  </si>
+  <si>
     <t>2x2mm keystock</t>
   </si>
   <si>
+    <t>mounting almost all gears on axles</t>
+  </si>
+  <si>
     <t>608 bearing</t>
   </si>
   <si>
@@ -149,7 +178,7 @@
     <t>90x106x8 cross roller bearing</t>
   </si>
   <si>
-    <t>sourced directly form china (alibaba)</t>
+    <t>sourced directly form china (alibaba), main swerve bearing</t>
   </si>
   <si>
     <t>T5 14 tooth 16mm belt pulley</t>
@@ -158,7 +187,7 @@
     <t>https://www.ebmia.pl/kola-do-pasow-t5/1478-kolo-zebate-27-t5-14-2f-do-pasa-szerokosci-16mm.html</t>
   </si>
   <si>
-    <t>polish supplier, you can also source locally, requres heavy modyfications</t>
+    <t>polish supplier, you can also source locally, requires heavy modyfications</t>
   </si>
   <si>
     <t>m1 15 tooth spur gear</t>
@@ -215,7 +244,7 @@
     <t>https://www.ebmia.pl/kola-zebate-m15/2136-kolo-zebate-m15-z16.html</t>
   </si>
   <si>
-    <t>polish supplier, you can also source locally, requres heavy modyfications, for highr gear ratio</t>
+    <t>polish supplier, you can also source locally, requires heavy modyfications, for highr gear ratio</t>
   </si>
   <si>
     <t>m1.5 12 tooth spur gear</t>
@@ -224,7 +253,7 @@
     <t>https://www.ebmia.pl/kola-zebate-m15/211247-kolo-zebate-m15-z12.html</t>
   </si>
   <si>
-    <t>polish supplier, you can also source locally, requres heavy modyfications, for lower gear ratio</t>
+    <t>polish supplier, you can also source locally, requires heavy modyfications, for lower gear ratio</t>
   </si>
   <si>
     <t>top plate</t>
@@ -257,16 +286,19 @@
     <t>bottom main bearing mount</t>
   </si>
   <si>
+    <t>standoff</t>
+  </si>
+  <si>
     <t>frame profiles</t>
   </si>
   <si>
-    <t>depends on the desing of yours robot, we recomend aluminium</t>
-  </si>
-  <si>
-    <t>wheel with casted tire</t>
-  </si>
-  <si>
-    <t>fully custom, 3D printed &amp; casted</t>
+    <t>depends on the design of your robot, we recommend steel 30x60mm</t>
+  </si>
+  <si>
+    <t>wheel with cast tire</t>
+  </si>
+  <si>
+    <t>fully custom, 3D printed &amp; cast</t>
   </si>
   <si>
     <t>encoder mount</t>
@@ -279,9 +311,6 @@
   </si>
   <si>
     <t>fully custom, 3D printed, optional</t>
-  </si>
-  <si>
-    <t>standoff</t>
   </si>
   <si>
     <t>wheel spacer 1</t>
@@ -654,7 +683,7 @@
     <col customWidth="1" min="2" max="2" width="39.75"/>
     <col customWidth="1" min="3" max="3" width="6.88"/>
     <col customWidth="1" min="4" max="4" width="86.5"/>
-    <col customWidth="1" min="5" max="5" width="69.25"/>
+    <col customWidth="1" min="5" max="5" width="74.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -817,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
@@ -836,7 +865,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -844,14 +873,14 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>2.0</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -859,14 +888,14 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>8.0</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -874,14 +903,14 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>8.0</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -889,14 +918,14 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -904,14 +933,14 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>2.0</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -919,14 +948,14 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>6.0</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -934,57 +963,67 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>2.0</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <v>6.0</v>
@@ -997,7 +1036,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>1.0</v>
@@ -1010,7 +1049,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -1023,7 +1062,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <v>1.0</v>
@@ -1036,14 +1075,14 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <v>1.0</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1051,16 +1090,16 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1">
         <v>1.0</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1068,16 +1107,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
@@ -1085,16 +1124,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>1.0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1102,16 +1141,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1">
         <v>1.0</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1119,16 +1158,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1">
         <v>1.0</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -1136,16 +1175,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1">
         <v>1.0</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1153,16 +1192,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -1170,16 +1209,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>1.0</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
@@ -1187,16 +1226,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C36" s="1">
         <v>1.0</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
@@ -1204,16 +1243,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C37" s="1">
         <v>1.0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -1221,16 +1260,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1">
         <v>1.0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -1238,14 +1277,14 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -1253,14 +1292,14 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1">
         <v>1.0</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -1268,14 +1307,14 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1">
         <v>1.0</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -1283,14 +1322,14 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1">
         <v>1.0</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1298,14 +1337,14 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1">
         <v>1.0</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -1320,7 +1359,7 @@
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -1328,14 +1367,14 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1">
         <v>1.0</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -1343,14 +1382,14 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
         <v>1.0</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
@@ -1358,14 +1397,14 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C47" s="1">
         <v>1.0</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -1373,14 +1412,14 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -1388,14 +1427,14 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="50">
@@ -1403,14 +1442,14 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -1418,14 +1457,14 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1">
         <v>1.0</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52">
@@ -1433,14 +1472,14 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1">
         <v>1.0</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="8" t="s">
-        <v>85</v>
+      <c r="E52" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="53">
@@ -1448,14 +1487,14 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54">
@@ -1463,14 +1502,14 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1">
         <v>1.0</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -1478,14 +1517,14 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1">
         <v>1.0</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
@@ -3289,108 +3328,84 @@
       <c r="E255" s="3"/>
     </row>
     <row r="256">
-      <c r="A256" s="1">
-        <v>255.0</v>
-      </c>
+      <c r="A256" s="1"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
     </row>
     <row r="257">
-      <c r="A257" s="1">
-        <v>256.0</v>
-      </c>
+      <c r="A257" s="1"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
     </row>
     <row r="258">
-      <c r="A258" s="1">
-        <v>257.0</v>
-      </c>
+      <c r="A258" s="1"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259">
-      <c r="A259" s="1">
-        <v>258.0</v>
-      </c>
+      <c r="A259" s="1"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260">
-      <c r="A260" s="1">
-        <v>259.0</v>
-      </c>
+      <c r="A260" s="1"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
     </row>
     <row r="261">
-      <c r="A261" s="1">
-        <v>260.0</v>
-      </c>
+      <c r="A261" s="1"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262">
-      <c r="A262" s="1">
-        <v>261.0</v>
-      </c>
+      <c r="A262" s="1"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263">
-      <c r="A263" s="1">
-        <v>262.0</v>
-      </c>
+      <c r="A263" s="1"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264">
-      <c r="A264" s="1">
-        <v>263.0</v>
-      </c>
+      <c r="A264" s="1"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265">
-      <c r="A265" s="1">
-        <v>264.0</v>
-      </c>
+      <c r="A265" s="1"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266">
-      <c r="A266" s="1">
-        <v>265.0</v>
-      </c>
+      <c r="A266" s="1"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267">
-      <c r="A267" s="1">
-        <v>266.0</v>
-      </c>
+      <c r="A267" s="1"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -8545,21 +8560,22 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D28"/>
-    <hyperlink r:id="rId4" ref="D29"/>
-    <hyperlink r:id="rId5" ref="D30"/>
-    <hyperlink r:id="rId6" ref="D31"/>
-    <hyperlink r:id="rId7" ref="D32"/>
-    <hyperlink r:id="rId8" ref="D33"/>
-    <hyperlink r:id="rId9" ref="D34"/>
-    <hyperlink r:id="rId10" ref="D35"/>
-    <hyperlink r:id="rId11" ref="D36"/>
-    <hyperlink r:id="rId12" ref="D37"/>
-    <hyperlink r:id="rId13" ref="D38"/>
+    <hyperlink r:id="rId3" ref="D21"/>
+    <hyperlink r:id="rId4" ref="D28"/>
+    <hyperlink r:id="rId5" ref="D29"/>
+    <hyperlink r:id="rId6" ref="D30"/>
+    <hyperlink r:id="rId7" ref="D31"/>
+    <hyperlink r:id="rId8" ref="D32"/>
+    <hyperlink r:id="rId9" ref="D33"/>
+    <hyperlink r:id="rId10" ref="D34"/>
+    <hyperlink r:id="rId11" ref="D35"/>
+    <hyperlink r:id="rId12" ref="D36"/>
+    <hyperlink r:id="rId13" ref="D37"/>
+    <hyperlink r:id="rId14" ref="D38"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>